--- a/Petshop/Script/Registros.xlsx
+++ b/Petshop/Script/Registros.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Unifoa\Sexto Periodo\Orientação A objetos 2\PetShopTrabalho\Petshop\Petshop\Petshop\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879A7D47-D7CA-4017-9C74-DE83F087B507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1A705B3-81C6-4852-8EA2-E5B781D98F5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="973" xr2:uid="{B6A99B9F-3357-4168-AA35-31BAC46B94DB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="973" activeTab="1" xr2:uid="{B6A99B9F-3357-4168-AA35-31BAC46B94DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="18" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="82">
   <si>
     <t>Nome do Animal</t>
   </si>
@@ -294,7 +294,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -363,7 +363,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -412,13 +412,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -430,41 +463,37 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" pivotButton="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -472,13 +501,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,7 +529,94 @@
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="52">
+  <dxfs count="160">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
@@ -498,6 +627,93 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -507,6 +723,84 @@
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
@@ -516,6 +810,93 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <alignment vertical="center"/>
     </dxf>
     <dxf>
@@ -525,8 +906,688 @@
       <alignment vertical="center"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center"/>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -548,9 +1609,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="&quot;R$&quot;\ #,##0.00"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -572,8 +1631,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -595,8 +1653,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -618,8 +1675,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -641,8 +1697,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -664,8 +1719,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -687,9 +1741,7 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -711,8 +1763,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -734,31 +1785,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border>
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -814,163 +1841,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -992,7 +1864,9 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <numFmt numFmtId="164" formatCode="&quot;R$&quot;\ #,##0.00"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1014,7 +1888,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1036,7 +1911,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1058,7 +1934,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1080,7 +1957,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1102,7 +1980,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1124,7 +2003,9 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1146,7 +2027,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1168,7 +2050,8 @@
       </border>
     </dxf>
     <dxf>
-      <border>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1187,6 +2070,62 @@
         <horizontal style="thin">
           <color indexed="64"/>
         </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1223,39 +2162,6 @@
           <color indexed="64"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1314,7 +2220,7 @@
     <cacheField name="Plano do Animal" numFmtId="0">
       <sharedItems/>
     </cacheField>
-    <cacheField name="Preço do Plano" numFmtId="168">
+    <cacheField name="Preço do Plano" numFmtId="164">
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="100" maxValue="300" count="3">
         <n v="100"/>
         <n v="200"/>
@@ -1574,11 +2480,17 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9985AC1D-271F-49B3-9169-9BD9999CDA11}" name="Tabela dinâmica4" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="E11:F15" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9985AC1D-271F-49B3-9169-9BD9999CDA11}" name="Tabela dinâmica4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="E11:F14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField showAll="0"/>
     <pivotField numFmtId="14" showAll="0"/>
     <pivotField axis="axisRow" showAll="0" measureFilter="1" sortType="descending">
@@ -1606,7 +2518,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" numFmtId="168" showAll="0" sumSubtotal="1">
+    <pivotField dataField="1" numFmtId="164" showAll="0" sumSubtotal="1">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
@@ -1621,10 +2533,7 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
+  <rowItems count="3">
     <i>
       <x v="1"/>
     </i>
@@ -1638,20 +2547,23 @@
   <colItems count="1">
     <i/>
   </colItems>
+  <pageFields count="1">
+    <pageField fld="1" item="0" hier="-1"/>
+  </pageFields>
   <dataFields count="1">
-    <dataField name="Soma de Preço do Plano" fld="9" baseField="0" baseItem="0" numFmtId="168"/>
+    <dataField name="Soma de Preço do Plano" fld="9" baseField="0" baseItem="0" numFmtId="164"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="30">
+    <format dxfId="119">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="118">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="117">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="116">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="3">
@@ -1662,16 +2574,16 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="115">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="114">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="113">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="112">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="3">
@@ -1682,13 +2594,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="9">
+    <format dxfId="111">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="110">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="4">
+    <format dxfId="109">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="3">
@@ -1699,7 +2611,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="3">
+    <format dxfId="108">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1727,7 +2639,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E831293-E5D7-447E-ABB4-D4EEFE84881C}" name="Tabela dinâmica3" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{9E831293-E5D7-447E-ABB4-D4EEFE84881C}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="B11:C19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField dataField="1" showAll="0"/>
@@ -1759,7 +2671,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
@@ -1800,52 +2712,52 @@
     <dataField name="Contagem de Nome do Animal" fld="0" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="12">
-    <format dxfId="36">
+    <format dxfId="131">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="130">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="34">
+    <format dxfId="129">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="128">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="127">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="126">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="8">
+    <format dxfId="125">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="7">
+    <format dxfId="124">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="6">
+    <format dxfId="123">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="2">
+    <format dxfId="122">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="121">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="120">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1862,7 +2774,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A88B60C2-8EC9-4901-8C27-272E6090841B}" name="Tabela dinâmica2" cacheId="18" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A88B60C2-8EC9-4901-8C27-272E6090841B}" name="Tabela dinâmica2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="13">
     <pivotField showAll="0"/>
@@ -1880,7 +2792,7 @@
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField numFmtId="168" showAll="0"/>
+    <pivotField numFmtId="164" showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField axis="axisCol" dataField="1" showAll="0">
@@ -1927,42 +2839,42 @@
     <dataField name="Contagem de Faixa Etária" fld="12" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="10">
-    <format dxfId="46">
+    <format dxfId="141">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="45">
+    <format dxfId="140">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="44">
+    <format dxfId="139">
       <pivotArea type="origin" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="138">
       <pivotArea field="12" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisCol" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="137">
       <pivotArea type="topRight" dataOnly="0" labelOnly="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="41">
+    <format dxfId="136">
       <pivotArea field="1" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="40">
+    <format dxfId="135">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="134">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="133">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="12" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="37">
+    <format dxfId="132">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -1979,24 +2891,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F38F2E5-59DC-45F1-AD53-B0F9DD00A99D}" name="Registros" displayName="Registros" ref="A1:M16" totalsRowShown="0" headerRowDxfId="47" dataDxfId="51" headerRowBorderDxfId="49" tableBorderDxfId="50" totalsRowBorderDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{3F38F2E5-59DC-45F1-AD53-B0F9DD00A99D}" name="Registros" displayName="Registros" ref="A1:M16" totalsRowShown="0" headerRowDxfId="159" dataDxfId="157" headerRowBorderDxfId="158" tableBorderDxfId="156" totalsRowBorderDxfId="155">
   <autoFilter ref="A1:M16" xr:uid="{3F38F2E5-59DC-45F1-AD53-B0F9DD00A99D}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{1B64BD1D-4D57-4DD6-8FC9-A983432B28AD}" name="Nome do Animal" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{F7D24EED-3ABC-4254-998F-61B3F7F32CAA}" name="Espécie" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{399F4E8A-77E8-4472-99AC-369E7230C94D}" name="Raça" dataDxfId="20"/>
-    <tableColumn id="4" xr3:uid="{67C36903-68C8-41D6-B21B-4EC35C4E06FD}" name="Data de Nascimento" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{7F5C2D41-D6AB-4F72-AF28-546E175A9DBE}" name="Nome do Dono" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{4298E399-CB53-4F2A-8ADD-76DD2B9C0B65}" name="Email do Dono" dataDxfId="17" dataCellStyle="Hiperlink"/>
-    <tableColumn id="7" xr3:uid="{26255AD1-47EE-472A-9F21-C518E64EA634}" name="Telefone do Dono" dataDxfId="16"/>
-    <tableColumn id="8" xr3:uid="{9E1E8B7C-A583-4497-BFFB-F9A78B1BA36E}" name="Endereço do Dono" dataDxfId="15"/>
-    <tableColumn id="9" xr3:uid="{704B62A7-1F1D-4E2C-90F1-6918C56E9108}" name="Plano do Animal" dataDxfId="14"/>
-    <tableColumn id="10" xr3:uid="{3D7D1E63-358B-4179-BE5F-7B739478CB12}" name="Preço do Plano" dataDxfId="13" dataCellStyle="Moeda"/>
-    <tableColumn id="11" xr3:uid="{932F03F9-ECCA-45AA-9BC6-8A7C07835BE7}" name="Descrição do Plano" dataDxfId="12"/>
-    <tableColumn id="12" xr3:uid="{9BAE6660-5951-4664-8545-4851E614EA85}" name="Idade" dataDxfId="24">
+    <tableColumn id="1" xr3:uid="{1B64BD1D-4D57-4DD6-8FC9-A983432B28AD}" name="Nome do Animal" dataDxfId="154"/>
+    <tableColumn id="2" xr3:uid="{F7D24EED-3ABC-4254-998F-61B3F7F32CAA}" name="Espécie" dataDxfId="153"/>
+    <tableColumn id="3" xr3:uid="{399F4E8A-77E8-4472-99AC-369E7230C94D}" name="Raça" dataDxfId="152"/>
+    <tableColumn id="4" xr3:uid="{67C36903-68C8-41D6-B21B-4EC35C4E06FD}" name="Data de Nascimento" dataDxfId="151"/>
+    <tableColumn id="5" xr3:uid="{7F5C2D41-D6AB-4F72-AF28-546E175A9DBE}" name="Nome do Dono" dataDxfId="150"/>
+    <tableColumn id="6" xr3:uid="{4298E399-CB53-4F2A-8ADD-76DD2B9C0B65}" name="Email do Dono" dataDxfId="149" dataCellStyle="Hiperlink"/>
+    <tableColumn id="7" xr3:uid="{26255AD1-47EE-472A-9F21-C518E64EA634}" name="Telefone do Dono" dataDxfId="148"/>
+    <tableColumn id="8" xr3:uid="{9E1E8B7C-A583-4497-BFFB-F9A78B1BA36E}" name="Endereço do Dono" dataDxfId="147"/>
+    <tableColumn id="9" xr3:uid="{704B62A7-1F1D-4E2C-90F1-6918C56E9108}" name="Plano do Animal" dataDxfId="146"/>
+    <tableColumn id="10" xr3:uid="{3D7D1E63-358B-4179-BE5F-7B739478CB12}" name="Preço do Plano" dataDxfId="145" dataCellStyle="Moeda"/>
+    <tableColumn id="11" xr3:uid="{932F03F9-ECCA-45AA-9BC6-8A7C07835BE7}" name="Descrição do Plano" dataDxfId="144"/>
+    <tableColumn id="12" xr3:uid="{9BAE6660-5951-4664-8545-4851E614EA85}" name="Idade" dataDxfId="143">
       <calculatedColumnFormula>DATEDIF(Registros[[#This Row],[Data de Nascimento]],TODAY(),"Y")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{E7C13C7B-7F9E-4F39-AFF0-91D028651189}" name="Faixa Etária" dataDxfId="23">
+    <tableColumn id="13" xr3:uid="{E7C13C7B-7F9E-4F39-AFF0-91D028651189}" name="Faixa Etária" dataDxfId="142">
       <calculatedColumnFormula>IF(Registros[[#This Row],[Idade]]&lt;=2,"Filhote",
 IF(Registros[[#This Row],[Idade]] &lt;= 7,"Adulto","Idoso"))</calculatedColumnFormula>
     </tableColumn>
@@ -2324,7 +3236,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319FD5C7-C101-4BB8-B583-C67CC3C03121}">
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
       <selection activeCell="O21" sqref="O21"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
@@ -2360,37 +3272,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="F1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="15" t="s">
+      <c r="G1" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="15" t="s">
+      <c r="K1" s="14" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
@@ -2431,7 +3343,7 @@
       <c r="J2" s="5">
         <v>100</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="8">
@@ -2475,7 +3387,7 @@
       <c r="J3" s="5">
         <v>200</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="16" t="s">
         <v>28</v>
       </c>
       <c r="L3" s="10">
@@ -2519,7 +3431,7 @@
       <c r="J4" s="5">
         <v>300</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="K4" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L4" s="10">
@@ -2563,7 +3475,7 @@
       <c r="J5" s="5">
         <v>100</v>
       </c>
-      <c r="K5" s="17" t="s">
+      <c r="K5" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L5" s="10">
@@ -2607,7 +3519,7 @@
       <c r="J6" s="5">
         <v>200</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="16" t="s">
         <v>28</v>
       </c>
       <c r="L6" s="10">
@@ -2651,7 +3563,7 @@
       <c r="J7" s="5">
         <v>300</v>
       </c>
-      <c r="K7" s="17" t="s">
+      <c r="K7" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L7" s="10">
@@ -2695,7 +3607,7 @@
       <c r="J8" s="5">
         <v>200</v>
       </c>
-      <c r="K8" s="17" t="s">
+      <c r="K8" s="16" t="s">
         <v>28</v>
       </c>
       <c r="L8" s="10">
@@ -2739,7 +3651,7 @@
       <c r="J9" s="5">
         <v>300</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L9" s="10">
@@ -2783,7 +3695,7 @@
       <c r="J10" s="5">
         <v>100</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L10" s="10">
@@ -2827,7 +3739,7 @@
       <c r="J11" s="5">
         <v>300</v>
       </c>
-      <c r="K11" s="17" t="s">
+      <c r="K11" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L11" s="10">
@@ -2871,7 +3783,7 @@
       <c r="J12" s="5">
         <v>200</v>
       </c>
-      <c r="K12" s="17" t="s">
+      <c r="K12" s="16" t="s">
         <v>28</v>
       </c>
       <c r="L12" s="10">
@@ -2915,7 +3827,7 @@
       <c r="J13" s="5">
         <v>100</v>
       </c>
-      <c r="K13" s="17" t="s">
+      <c r="K13" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L13" s="10">
@@ -2959,7 +3871,7 @@
       <c r="J14" s="5">
         <v>300</v>
       </c>
-      <c r="K14" s="17" t="s">
+      <c r="K14" s="16" t="s">
         <v>36</v>
       </c>
       <c r="L14" s="10">
@@ -3003,7 +3915,7 @@
       <c r="J15" s="5">
         <v>200</v>
       </c>
-      <c r="K15" s="17" t="s">
+      <c r="K15" s="16" t="s">
         <v>28</v>
       </c>
       <c r="L15" s="10">
@@ -3047,7 +3959,7 @@
       <c r="J16" s="5">
         <v>100</v>
       </c>
-      <c r="K16" s="17" t="s">
+      <c r="K16" s="16" t="s">
         <v>19</v>
       </c>
       <c r="L16" s="11">
@@ -3089,8 +4001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F073CB62-BF1E-4AD1-B6FD-91724DAA491C}">
   <dimension ref="B2:F19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3098,18 +4010,18 @@
     <col min="2" max="2" width="22.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.77734375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="2:6" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="12" t="s">
@@ -3143,16 +4055,16 @@
       <c r="B5" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="4">
         <v>6</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="4">
         <v>1</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="4">
         <v>8</v>
       </c>
     </row>
@@ -3160,14 +4072,14 @@
       <c r="B6" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="4">
         <v>6</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14">
+      <c r="D6" s="4"/>
+      <c r="E6" s="4">
         <v>1</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="4">
         <v>7</v>
       </c>
     </row>
@@ -3175,29 +4087,37 @@
       <c r="B7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="4">
         <v>12</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="4">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="4">
         <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E9" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="2:6" ht="22.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="18" t="s">
+      <c r="C10" s="20"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="18"/>
+      <c r="F10" s="20"/>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
@@ -3206,116 +4126,104 @@
       <c r="C11" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="22" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="12" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="18">
         <v>3</v>
       </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="20" t="s">
-        <v>23</v>
+      <c r="D12" s="19"/>
+      <c r="E12" s="28" t="s">
+        <v>31</v>
       </c>
       <c r="F12" s="23">
         <v>600</v>
       </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="21">
+      <c r="C13" s="18">
         <v>3</v>
       </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="20" t="s">
-        <v>31</v>
+      <c r="D13" s="19"/>
+      <c r="E13" s="25" t="s">
+        <v>45</v>
       </c>
       <c r="F13" s="23">
-        <v>600</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="21">
+      <c r="C14" s="18">
         <v>2</v>
       </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F14" s="23">
-        <v>500</v>
+      <c r="D14" s="19"/>
+      <c r="E14" s="25" t="s">
+        <v>70</v>
+      </c>
+      <c r="F14" s="24">
+        <v>1100</v>
       </c>
     </row>
     <row r="15" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="21">
+      <c r="C15" s="18">
         <v>2</v>
       </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="23">
-        <v>1700</v>
-      </c>
+      <c r="D15" s="19"/>
     </row>
     <row r="16" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="21">
+      <c r="C16" s="18">
         <v>2</v>
       </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
+      <c r="D16" s="19"/>
     </row>
     <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="21">
+      <c r="C17" s="18">
         <v>2</v>
       </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
+      <c r="D17" s="19"/>
     </row>
     <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C18" s="21">
+      <c r="C18" s="18">
         <v>1</v>
       </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
+      <c r="D18" s="19"/>
     </row>
     <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="18">
         <v>15</v>
       </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="3">
